--- a/blog/doc/sd2516 отчет.xlsx
+++ b/blog/doc/sd2516 отчет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>SD2128</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>(время между циклами не учитывалось)</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://texmpo.github.io/texmpo/blog/img/lori%20sd2128.svg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://texmpo.github.io/texmpo/blog/img/lori%20sd2516.svg"&gt;</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +238,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -252,14 +264,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3600451</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7551</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1664901</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1866900</xdr:rowOff>
     </xdr:to>
@@ -285,7 +297,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609601" y="247650"/>
+          <a:off x="3600451" y="247650"/>
           <a:ext cx="1674425" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -320,13 +332,15 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="Lori sd2526"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="Lori sd2526">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -628,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,8 +668,12 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -706,13 +726,13 @@
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="12">
         <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
